--- a/GC-MS_toMIDcore_format.xlsx
+++ b/GC-MS_toMIDcore_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVRU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s182286/Desktop/Center for Biosustainability/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB20A7D-44CC-443C-BB70-CF77C5A11D36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0847E702-F1A6-1149-B66E-31A3B2622157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1420" windowWidth="21640" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_flux_Ivan_0_2" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="188">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -72,9 +74,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>S02T01S71</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -84,16 +83,10 @@
     <t>S01T02S71</t>
   </si>
   <si>
-    <t>S02T02S71</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
     <t>S01T03S71</t>
-  </si>
-  <si>
-    <t>S02T03S71</t>
   </si>
   <si>
     <t>F4</t>
@@ -102,16 +95,10 @@
     <t>S01T04S71</t>
   </si>
   <si>
-    <t>S02T04S71</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
     <t>S01T05S71</t>
-  </si>
-  <si>
-    <t>S02T05S71</t>
   </si>
   <si>
     <t>F6</t>
@@ -120,16 +107,10 @@
     <t>S01T06S71</t>
   </si>
   <si>
-    <t>S02T06S71</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
     <t>S01T07S71</t>
-  </si>
-  <si>
-    <t>S02T07S71</t>
   </si>
   <si>
     <t>F8</t>
@@ -138,16 +119,10 @@
     <t>S01T08S71</t>
   </si>
   <si>
-    <t>S02T08S71</t>
-  </si>
-  <si>
     <t>F9</t>
   </si>
   <si>
     <t>S01T09S71</t>
-  </si>
-  <si>
-    <t>S02T09S71</t>
   </si>
   <si>
     <t>F10</t>
@@ -156,16 +131,10 @@
     <t>S01T10S71</t>
   </si>
   <si>
-    <t>S02T10S71</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
     <t>S01T11S71</t>
-  </si>
-  <si>
-    <t>S02T11S71</t>
   </si>
   <si>
     <t>F12</t>
@@ -174,16 +143,10 @@
     <t>S01T12S71</t>
   </si>
   <si>
-    <t>S02T12S71</t>
-  </si>
-  <si>
     <t>F13</t>
   </si>
   <si>
     <t>S01T13S71</t>
-  </si>
-  <si>
-    <t>S02T13S71</t>
   </si>
   <si>
     <t>F14</t>
@@ -192,16 +155,10 @@
     <t>S01T14S71</t>
   </si>
   <si>
-    <t>S02T14S71</t>
-  </si>
-  <si>
     <t>F15</t>
   </si>
   <si>
     <t>S01T15S71</t>
-  </si>
-  <si>
-    <t>S02T15S71</t>
   </si>
   <si>
     <t>F16</t>
@@ -210,16 +167,10 @@
     <t>S01T16S71</t>
   </si>
   <si>
-    <t>S02T16S71</t>
-  </si>
-  <si>
     <t>F17</t>
   </si>
   <si>
     <t>S01T17S71</t>
-  </si>
-  <si>
-    <t>S02T17S71</t>
   </si>
   <si>
     <t>F18</t>
@@ -228,16 +179,10 @@
     <t>S01T01Z71</t>
   </si>
   <si>
-    <t>S02T01Z71</t>
-  </si>
-  <si>
     <t>F19</t>
   </si>
   <si>
     <t>S01T02Z71</t>
-  </si>
-  <si>
-    <t>S02T02Z71</t>
   </si>
   <si>
     <t>F20</t>
@@ -246,16 +191,10 @@
     <t>S01T03Z71</t>
   </si>
   <si>
-    <t>S02T03Z71</t>
-  </si>
-  <si>
     <t>F21</t>
   </si>
   <si>
     <t>S01T04Z71</t>
-  </si>
-  <si>
-    <t>S02T04Z71</t>
   </si>
   <si>
     <t>F22</t>
@@ -264,16 +203,10 @@
     <t>S01T05Z71</t>
   </si>
   <si>
-    <t>S02T05Z71</t>
-  </si>
-  <si>
     <t>F23</t>
   </si>
   <si>
     <t>S01T06Z71</t>
-  </si>
-  <si>
-    <t>S02T06Z71</t>
   </si>
   <si>
     <t>F24</t>
@@ -282,16 +215,10 @@
     <t>S01T07Z71</t>
   </si>
   <si>
-    <t>S02T07Z71</t>
-  </si>
-  <si>
     <t>F25</t>
   </si>
   <si>
     <t>S01T08Z71</t>
-  </si>
-  <si>
-    <t>S02T08Z71</t>
   </si>
   <si>
     <t>F26</t>
@@ -300,16 +227,10 @@
     <t>S01T09Z71</t>
   </si>
   <si>
-    <t>S02T09Z71</t>
-  </si>
-  <si>
     <t>F27</t>
   </si>
   <si>
     <t>S01T10Z71</t>
-  </si>
-  <si>
-    <t>S02T10Z71</t>
   </si>
   <si>
     <t>F28</t>
@@ -604,6 +525,78 @@
   </si>
   <si>
     <t>r5p604_m6</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>S01T01S68</t>
+  </si>
+  <si>
+    <t>S01T02S68</t>
+  </si>
+  <si>
+    <t>S01T03S68</t>
+  </si>
+  <si>
+    <t>S01T04S68</t>
+  </si>
+  <si>
+    <t>S01T05S68</t>
+  </si>
+  <si>
+    <t>S01T06S68</t>
+  </si>
+  <si>
+    <t>S01T07S68</t>
+  </si>
+  <si>
+    <t>S01T08S68</t>
+  </si>
+  <si>
+    <t>S01T09S68</t>
+  </si>
+  <si>
+    <t>S01T10S68</t>
+  </si>
+  <si>
+    <t>S01T11S68</t>
+  </si>
+  <si>
+    <t>S01T12S68</t>
+  </si>
+  <si>
+    <t>S01T13S68</t>
+  </si>
+  <si>
+    <t>S01T14S68</t>
+  </si>
+  <si>
+    <t>S01T15S68</t>
+  </si>
+  <si>
+    <t>S01T16S68</t>
+  </si>
+  <si>
+    <t>S01T17S68</t>
+  </si>
+  <si>
+    <t>S01T12Z71</t>
+  </si>
+  <si>
+    <t>S01T13Z71</t>
+  </si>
+  <si>
+    <t>S01T14Z71</t>
+  </si>
+  <si>
+    <t>S01T15Z71</t>
+  </si>
+  <si>
+    <t>S01T16Z71</t>
+  </si>
+  <si>
+    <t>S01T17Z71</t>
   </si>
 </sst>
 </file>
@@ -979,62 +972,62 @@
   <dimension ref="A1:JN105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="13" width="15.42578125" style="5" customWidth="1"/>
-    <col min="14" max="23" width="17.42578125" style="5" customWidth="1"/>
-    <col min="24" max="33" width="17.28515625" style="5" customWidth="1"/>
-    <col min="34" max="41" width="16.28515625" style="5" customWidth="1"/>
-    <col min="42" max="47" width="15.7109375" style="5" customWidth="1"/>
-    <col min="48" max="53" width="12.7109375" style="5" customWidth="1"/>
-    <col min="54" max="57" width="16.42578125" style="5" customWidth="1"/>
-    <col min="58" max="61" width="12.7109375" style="5" customWidth="1"/>
-    <col min="62" max="68" width="13.42578125" style="5" customWidth="1"/>
-    <col min="69" max="76" width="13.140625" style="5" customWidth="1"/>
-    <col min="77" max="80" width="18.42578125" style="5" customWidth="1"/>
-    <col min="81" max="86" width="19.28515625" style="5" customWidth="1"/>
-    <col min="87" max="96" width="15.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="5" customWidth="1"/>
+    <col min="5" max="13" width="15.5" style="5" customWidth="1"/>
+    <col min="14" max="23" width="17.5" style="5" customWidth="1"/>
+    <col min="24" max="33" width="17.33203125" style="5" customWidth="1"/>
+    <col min="34" max="41" width="16.33203125" style="5" customWidth="1"/>
+    <col min="42" max="47" width="15.6640625" style="5" customWidth="1"/>
+    <col min="48" max="53" width="12.6640625" style="5" customWidth="1"/>
+    <col min="54" max="57" width="16.5" style="5" customWidth="1"/>
+    <col min="58" max="61" width="12.6640625" style="5" customWidth="1"/>
+    <col min="62" max="68" width="13.5" style="5" customWidth="1"/>
+    <col min="69" max="76" width="13.1640625" style="5" customWidth="1"/>
+    <col min="77" max="80" width="18.5" style="5" customWidth="1"/>
+    <col min="81" max="86" width="19.33203125" style="5" customWidth="1"/>
+    <col min="87" max="96" width="15.1640625" style="5" customWidth="1"/>
     <col min="97" max="100" width="16" style="5" customWidth="1"/>
-    <col min="101" max="102" width="14.85546875" style="5" customWidth="1"/>
-    <col min="103" max="103" width="15.85546875" style="5" customWidth="1"/>
-    <col min="104" max="111" width="14.85546875" style="5" customWidth="1"/>
-    <col min="112" max="116" width="14.42578125" style="5" customWidth="1"/>
-    <col min="117" max="121" width="16.85546875" style="5" customWidth="1"/>
-    <col min="122" max="131" width="13.140625" style="5" customWidth="1"/>
-    <col min="132" max="138" width="15.140625" style="5" customWidth="1"/>
-    <col min="139" max="142" width="32.28515625" style="5" customWidth="1"/>
-    <col min="143" max="154" width="19.28515625" style="5" customWidth="1"/>
+    <col min="101" max="102" width="14.83203125" style="5" customWidth="1"/>
+    <col min="103" max="103" width="15.83203125" style="5" customWidth="1"/>
+    <col min="104" max="111" width="14.83203125" style="5" customWidth="1"/>
+    <col min="112" max="116" width="14.5" style="5" customWidth="1"/>
+    <col min="117" max="121" width="16.83203125" style="5" customWidth="1"/>
+    <col min="122" max="131" width="13.1640625" style="5" customWidth="1"/>
+    <col min="132" max="138" width="15.1640625" style="5" customWidth="1"/>
+    <col min="139" max="142" width="32.33203125" style="5" customWidth="1"/>
+    <col min="143" max="154" width="19.33203125" style="5" customWidth="1"/>
     <col min="155" max="158" width="14" style="5" customWidth="1"/>
-    <col min="159" max="170" width="12.42578125" style="5" customWidth="1"/>
-    <col min="171" max="172" width="12.7109375" style="5" customWidth="1"/>
-    <col min="173" max="182" width="13.85546875" style="5" customWidth="1"/>
-    <col min="183" max="183" width="12.7109375" style="5" customWidth="1"/>
-    <col min="184" max="191" width="13.85546875" style="5" customWidth="1"/>
-    <col min="192" max="198" width="12.7109375" style="5" customWidth="1"/>
-    <col min="199" max="205" width="13.140625" style="5" customWidth="1"/>
-    <col min="206" max="209" width="17.85546875" style="5" customWidth="1"/>
-    <col min="210" max="211" width="12.7109375" style="5" customWidth="1"/>
-    <col min="212" max="212" width="13.85546875" style="5" customWidth="1"/>
-    <col min="213" max="220" width="12.7109375" style="5" customWidth="1"/>
-    <col min="221" max="226" width="15.42578125" style="5" customWidth="1"/>
-    <col min="227" max="250" width="17.42578125" style="5" customWidth="1"/>
-    <col min="251" max="252" width="16.85546875" style="5" customWidth="1"/>
+    <col min="159" max="170" width="12.5" style="5" customWidth="1"/>
+    <col min="171" max="172" width="12.6640625" style="5" customWidth="1"/>
+    <col min="173" max="182" width="13.83203125" style="5" customWidth="1"/>
+    <col min="183" max="183" width="12.6640625" style="5" customWidth="1"/>
+    <col min="184" max="191" width="13.83203125" style="5" customWidth="1"/>
+    <col min="192" max="198" width="12.6640625" style="5" customWidth="1"/>
+    <col min="199" max="205" width="13.1640625" style="5" customWidth="1"/>
+    <col min="206" max="209" width="17.83203125" style="5" customWidth="1"/>
+    <col min="210" max="211" width="12.6640625" style="5" customWidth="1"/>
+    <col min="212" max="212" width="13.83203125" style="5" customWidth="1"/>
+    <col min="213" max="220" width="12.6640625" style="5" customWidth="1"/>
+    <col min="221" max="226" width="15.5" style="5" customWidth="1"/>
+    <col min="227" max="250" width="17.5" style="5" customWidth="1"/>
+    <col min="251" max="252" width="16.83203125" style="5" customWidth="1"/>
     <col min="253" max="262" width="18" style="5" customWidth="1"/>
-    <col min="263" max="263" width="16.85546875" style="5" customWidth="1"/>
+    <col min="263" max="263" width="16.83203125" style="5" customWidth="1"/>
     <col min="264" max="267" width="18" style="5" customWidth="1"/>
-    <col min="268" max="274" width="16.85546875" style="5" customWidth="1"/>
-    <col min="275" max="1025" width="8.42578125" style="5" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="5"/>
+    <col min="268" max="274" width="16.83203125" style="5" customWidth="1"/>
+    <col min="275" max="1025" width="8.5" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1046,247 +1039,247 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="CH1" s="4"/>
       <c r="CI1" s="4"/>
@@ -1478,7 +1471,7 @@
       <c r="JM1" s="4"/>
       <c r="JN1" s="4"/>
     </row>
-    <row r="2" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1486,247 +1479,247 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BI2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="BO2" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="BP2" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="BQ2" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="BR2" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="BS2" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="BU2" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="BV2" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="BW2" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CD2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CE2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CF2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="CH2" s="4"/>
       <c r="CI2" s="4"/>
@@ -1918,7 +1911,7 @@
       <c r="JM2" s="4"/>
       <c r="JN2" s="4"/>
     </row>
-    <row r="3" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2358,7 +2351,7 @@
       <c r="JM3" s="4"/>
       <c r="JN3" s="4"/>
     </row>
-    <row r="4" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2754,15 +2747,15 @@
       <c r="JM4" s="4"/>
       <c r="JN4" s="4"/>
     </row>
-    <row r="5" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2">
@@ -3150,12 +3143,12 @@
       <c r="JM5" s="4"/>
       <c r="JN5" s="4"/>
     </row>
-    <row r="6" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -3546,15 +3539,15 @@
       <c r="JM6" s="4"/>
       <c r="JN6" s="4"/>
     </row>
-    <row r="7" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2">
@@ -3942,12 +3935,12 @@
       <c r="JM7" s="4"/>
       <c r="JN7" s="4"/>
     </row>
-    <row r="8" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -4338,15 +4331,15 @@
       <c r="JM8" s="4"/>
       <c r="JN8" s="4"/>
     </row>
-    <row r="9" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2">
@@ -4734,12 +4727,12 @@
       <c r="JM9" s="4"/>
       <c r="JN9" s="4"/>
     </row>
-    <row r="10" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -5130,15 +5123,15 @@
       <c r="JM10" s="4"/>
       <c r="JN10" s="4"/>
     </row>
-    <row r="11" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2">
@@ -5526,12 +5519,12 @@
       <c r="JM11" s="4"/>
       <c r="JN11" s="4"/>
     </row>
-    <row r="12" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -5922,15 +5915,15 @@
       <c r="JM12" s="4"/>
       <c r="JN12" s="4"/>
     </row>
-    <row r="13" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2">
@@ -6318,12 +6311,12 @@
       <c r="JM13" s="4"/>
       <c r="JN13" s="4"/>
     </row>
-    <row r="14" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -6714,15 +6707,15 @@
       <c r="JM14" s="4"/>
       <c r="JN14" s="4"/>
     </row>
-    <row r="15" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2">
@@ -7110,12 +7103,12 @@
       <c r="JM15" s="4"/>
       <c r="JN15" s="4"/>
     </row>
-    <row r="16" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>12</v>
@@ -7506,15 +7499,15 @@
       <c r="JM16" s="4"/>
       <c r="JN16" s="4"/>
     </row>
-    <row r="17" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2">
@@ -7902,12 +7895,12 @@
       <c r="JM17" s="4"/>
       <c r="JN17" s="4"/>
     </row>
-    <row r="18" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -8298,15 +8291,15 @@
       <c r="JM18" s="4"/>
       <c r="JN18" s="4"/>
     </row>
-    <row r="19" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2">
@@ -8694,12 +8687,12 @@
       <c r="JM19" s="4"/>
       <c r="JN19" s="4"/>
     </row>
-    <row r="20" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
@@ -9090,15 +9083,15 @@
       <c r="JM20" s="4"/>
       <c r="JN20" s="4"/>
     </row>
-    <row r="21" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2">
@@ -9486,12 +9479,12 @@
       <c r="JM21" s="4"/>
       <c r="JN21" s="4"/>
     </row>
-    <row r="22" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
@@ -9882,15 +9875,15 @@
       <c r="JM22" s="4"/>
       <c r="JN22" s="4"/>
     </row>
-    <row r="23" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2">
@@ -10278,12 +10271,12 @@
       <c r="JM23" s="4"/>
       <c r="JN23" s="4"/>
     </row>
-    <row r="24" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
@@ -10674,15 +10667,15 @@
       <c r="JM24" s="4"/>
       <c r="JN24" s="4"/>
     </row>
-    <row r="25" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2">
@@ -11070,12 +11063,12 @@
       <c r="JM25" s="4"/>
       <c r="JN25" s="4"/>
     </row>
-    <row r="26" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
@@ -11466,15 +11459,15 @@
       <c r="JM26" s="4"/>
       <c r="JN26" s="4"/>
     </row>
-    <row r="27" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2">
@@ -11862,12 +11855,12 @@
       <c r="JM27" s="4"/>
       <c r="JN27" s="4"/>
     </row>
-    <row r="28" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
@@ -12258,15 +12251,15 @@
       <c r="JM28" s="4"/>
       <c r="JN28" s="4"/>
     </row>
-    <row r="29" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2">
@@ -12654,12 +12647,12 @@
       <c r="JM29" s="4"/>
       <c r="JN29" s="4"/>
     </row>
-    <row r="30" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
@@ -13050,15 +13043,15 @@
       <c r="JM30" s="4"/>
       <c r="JN30" s="4"/>
     </row>
-    <row r="31" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2">
@@ -13446,12 +13439,12 @@
       <c r="JM31" s="4"/>
       <c r="JN31" s="4"/>
     </row>
-    <row r="32" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
@@ -13842,15 +13835,15 @@
       <c r="JM32" s="4"/>
       <c r="JN32" s="4"/>
     </row>
-    <row r="33" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2">
@@ -14238,12 +14231,12 @@
       <c r="JM33" s="4"/>
       <c r="JN33" s="4"/>
     </row>
-    <row r="34" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>12</v>
@@ -14634,15 +14627,15 @@
       <c r="JM34" s="4"/>
       <c r="JN34" s="4"/>
     </row>
-    <row r="35" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2">
@@ -15030,12 +15023,12 @@
       <c r="JM35" s="4"/>
       <c r="JN35" s="4"/>
     </row>
-    <row r="36" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>12</v>
@@ -15426,15 +15419,15 @@
       <c r="JM36" s="4"/>
       <c r="JN36" s="4"/>
     </row>
-    <row r="37" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="2">
@@ -15822,12 +15815,12 @@
       <c r="JM37" s="4"/>
       <c r="JN37" s="4"/>
     </row>
-    <row r="38" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
@@ -16218,15 +16211,15 @@
       <c r="JM38" s="4"/>
       <c r="JN38" s="4"/>
     </row>
-    <row r="39" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="2">
@@ -16614,12 +16607,12 @@
       <c r="JM39" s="4"/>
       <c r="JN39" s="4"/>
     </row>
-    <row r="40" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>12</v>
@@ -17010,15 +17003,15 @@
       <c r="JM40" s="4"/>
       <c r="JN40" s="4"/>
     </row>
-    <row r="41" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="2">
@@ -17406,12 +17399,12 @@
       <c r="JM41" s="4"/>
       <c r="JN41" s="4"/>
     </row>
-    <row r="42" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
@@ -17802,15 +17795,15 @@
       <c r="JM42" s="4"/>
       <c r="JN42" s="4"/>
     </row>
-    <row r="43" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2">
@@ -18198,12 +18191,12 @@
       <c r="JM43" s="4"/>
       <c r="JN43" s="4"/>
     </row>
-    <row r="44" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
@@ -18594,15 +18587,15 @@
       <c r="JM44" s="4"/>
       <c r="JN44" s="4"/>
     </row>
-    <row r="45" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="2">
@@ -18990,12 +18983,12 @@
       <c r="JM45" s="4"/>
       <c r="JN45" s="4"/>
     </row>
-    <row r="46" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
@@ -19386,15 +19379,15 @@
       <c r="JM46" s="4"/>
       <c r="JN46" s="4"/>
     </row>
-    <row r="47" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="2">
@@ -19782,12 +19775,12 @@
       <c r="JM47" s="4"/>
       <c r="JN47" s="4"/>
     </row>
-    <row r="48" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>12</v>
@@ -20178,15 +20171,15 @@
       <c r="JM48" s="4"/>
       <c r="JN48" s="4"/>
     </row>
-    <row r="49" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="2">
@@ -20574,12 +20567,12 @@
       <c r="JM49" s="4"/>
       <c r="JN49" s="4"/>
     </row>
-    <row r="50" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
@@ -20970,15 +20963,15 @@
       <c r="JM50" s="4"/>
       <c r="JN50" s="4"/>
     </row>
-    <row r="51" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="2">
@@ -21366,12 +21359,12 @@
       <c r="JM51" s="4"/>
       <c r="JN51" s="4"/>
     </row>
-    <row r="52" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>12</v>
@@ -21762,15 +21755,15 @@
       <c r="JM52" s="4"/>
       <c r="JN52" s="4"/>
     </row>
-    <row r="53" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="2">
@@ -22158,12 +22151,12 @@
       <c r="JM53" s="4"/>
       <c r="JN53" s="4"/>
     </row>
-    <row r="54" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>12</v>
@@ -22554,15 +22547,15 @@
       <c r="JM54" s="4"/>
       <c r="JN54" s="4"/>
     </row>
-    <row r="55" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="2">
@@ -22950,12 +22943,12 @@
       <c r="JM55" s="4"/>
       <c r="JN55" s="4"/>
     </row>
-    <row r="56" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>12</v>
@@ -23346,15 +23339,15 @@
       <c r="JM56" s="4"/>
       <c r="JN56" s="4"/>
     </row>
-    <row r="57" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="2">
@@ -23742,12 +23735,12 @@
       <c r="JM57" s="4"/>
       <c r="JN57" s="4"/>
     </row>
-    <row r="58" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>12</v>
@@ -24138,7 +24131,7 @@
       <c r="JM58" s="4"/>
       <c r="JN58" s="4"/>
     </row>
-    <row r="59" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -24326,7 +24319,7 @@
       <c r="JM59" s="4"/>
       <c r="JN59" s="4"/>
     </row>
-    <row r="60" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -24514,7 +24507,7 @@
       <c r="JM60" s="4"/>
       <c r="JN60" s="4"/>
     </row>
-    <row r="61" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -24702,7 +24695,7 @@
       <c r="JM61" s="4"/>
       <c r="JN61" s="4"/>
     </row>
-    <row r="62" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -24890,7 +24883,7 @@
       <c r="JM62" s="4"/>
       <c r="JN62" s="4"/>
     </row>
-    <row r="63" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -25078,7 +25071,7 @@
       <c r="JM63" s="4"/>
       <c r="JN63" s="4"/>
     </row>
-    <row r="64" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -25266,7 +25259,7 @@
       <c r="JM64" s="4"/>
       <c r="JN64" s="4"/>
     </row>
-    <row r="65" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -25454,7 +25447,7 @@
       <c r="JM65" s="4"/>
       <c r="JN65" s="4"/>
     </row>
-    <row r="66" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -25642,7 +25635,7 @@
       <c r="JM66" s="4"/>
       <c r="JN66" s="4"/>
     </row>
-    <row r="67" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -25830,7 +25823,7 @@
       <c r="JM67" s="4"/>
       <c r="JN67" s="4"/>
     </row>
-    <row r="68" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -26018,7 +26011,7 @@
       <c r="JM68" s="4"/>
       <c r="JN68" s="4"/>
     </row>
-    <row r="69" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -26206,7 +26199,7 @@
       <c r="JM69" s="4"/>
       <c r="JN69" s="4"/>
     </row>
-    <row r="70" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -26394,7 +26387,7 @@
       <c r="JM70" s="4"/>
       <c r="JN70" s="4"/>
     </row>
-    <row r="71" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -26582,7 +26575,7 @@
       <c r="JM71" s="4"/>
       <c r="JN71" s="4"/>
     </row>
-    <row r="72" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -26770,7 +26763,7 @@
       <c r="JM72" s="4"/>
       <c r="JN72" s="4"/>
     </row>
-    <row r="73" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -26958,7 +26951,7 @@
       <c r="JM73" s="4"/>
       <c r="JN73" s="4"/>
     </row>
-    <row r="74" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -27146,7 +27139,7 @@
       <c r="JM74" s="4"/>
       <c r="JN74" s="4"/>
     </row>
-    <row r="75" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -27334,7 +27327,7 @@
       <c r="JM75" s="4"/>
       <c r="JN75" s="4"/>
     </row>
-    <row r="76" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -27522,7 +27515,7 @@
       <c r="JM76" s="4"/>
       <c r="JN76" s="4"/>
     </row>
-    <row r="77" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -27710,7 +27703,7 @@
       <c r="JM77" s="4"/>
       <c r="JN77" s="4"/>
     </row>
-    <row r="78" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -27898,7 +27891,7 @@
       <c r="JM78" s="4"/>
       <c r="JN78" s="4"/>
     </row>
-    <row r="79" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -28086,7 +28079,7 @@
       <c r="JM79" s="4"/>
       <c r="JN79" s="4"/>
     </row>
-    <row r="80" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -28274,7 +28267,7 @@
       <c r="JM80" s="4"/>
       <c r="JN80" s="4"/>
     </row>
-    <row r="81" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -28462,7 +28455,7 @@
       <c r="JM81" s="4"/>
       <c r="JN81" s="4"/>
     </row>
-    <row r="82" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -28650,7 +28643,7 @@
       <c r="JM82" s="4"/>
       <c r="JN82" s="4"/>
     </row>
-    <row r="83" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -28838,7 +28831,7 @@
       <c r="JM83" s="4"/>
       <c r="JN83" s="4"/>
     </row>
-    <row r="84" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -29026,7 +29019,7 @@
       <c r="JM84" s="4"/>
       <c r="JN84" s="4"/>
     </row>
-    <row r="85" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -29214,7 +29207,7 @@
       <c r="JM85" s="4"/>
       <c r="JN85" s="4"/>
     </row>
-    <row r="86" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -29402,7 +29395,7 @@
       <c r="JM86" s="4"/>
       <c r="JN86" s="4"/>
     </row>
-    <row r="87" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -29590,7 +29583,7 @@
       <c r="JM87" s="4"/>
       <c r="JN87" s="4"/>
     </row>
-    <row r="88" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -29778,7 +29771,7 @@
       <c r="JM88" s="4"/>
       <c r="JN88" s="4"/>
     </row>
-    <row r="89" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -29966,7 +29959,7 @@
       <c r="JM89" s="4"/>
       <c r="JN89" s="4"/>
     </row>
-    <row r="90" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -30154,7 +30147,7 @@
       <c r="JM90" s="4"/>
       <c r="JN90" s="4"/>
     </row>
-    <row r="91" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -30342,7 +30335,7 @@
       <c r="JM91" s="4"/>
       <c r="JN91" s="4"/>
     </row>
-    <row r="92" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -30530,7 +30523,7 @@
       <c r="JM92" s="4"/>
       <c r="JN92" s="4"/>
     </row>
-    <row r="93" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -30718,7 +30711,7 @@
       <c r="JM93" s="4"/>
       <c r="JN93" s="4"/>
     </row>
-    <row r="94" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -30906,7 +30899,7 @@
       <c r="JM94" s="4"/>
       <c r="JN94" s="4"/>
     </row>
-    <row r="95" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -31094,7 +31087,7 @@
       <c r="JM95" s="4"/>
       <c r="JN95" s="4"/>
     </row>
-    <row r="96" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -31282,7 +31275,7 @@
       <c r="JM96" s="4"/>
       <c r="JN96" s="4"/>
     </row>
-    <row r="97" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -31470,7 +31463,7 @@
       <c r="JM97" s="4"/>
       <c r="JN97" s="4"/>
     </row>
-    <row r="98" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -31658,7 +31651,7 @@
       <c r="JM98" s="4"/>
       <c r="JN98" s="4"/>
     </row>
-    <row r="99" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -31846,7 +31839,7 @@
       <c r="JM99" s="4"/>
       <c r="JN99" s="4"/>
     </row>
-    <row r="100" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -32034,7 +32027,7 @@
       <c r="JM100" s="4"/>
       <c r="JN100" s="4"/>
     </row>
-    <row r="101" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -32222,7 +32215,7 @@
       <c r="JM101" s="4"/>
       <c r="JN101" s="4"/>
     </row>
-    <row r="102" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -32410,7 +32403,7 @@
       <c r="JM102" s="4"/>
       <c r="JN102" s="4"/>
     </row>
-    <row r="103" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -32598,7 +32591,7 @@
       <c r="JM103" s="4"/>
       <c r="JN103" s="4"/>
     </row>
-    <row r="104" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -32786,7 +32779,7 @@
       <c r="JM104" s="4"/>
       <c r="JN104" s="4"/>
     </row>
-    <row r="105" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:274" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
